--- a/virtualization.xlsx
+++ b/virtualization.xlsx
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$55</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>测试项目</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>能否安装</t>
     </r>
     <r>
@@ -79,6 +85,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>能否下载</t>
     </r>
     <r>
@@ -95,7 +107,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>压缩包</t>
@@ -103,6 +114,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>能否解压</t>
     </r>
     <r>
@@ -119,7 +136,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>压缩包</t>
@@ -130,6 +146,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>能否编写测试</t>
     </r>
     <r>
@@ -144,6 +166,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>能否启动</t>
     </r>
     <r>
@@ -158,6 +186,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>能否启动</t>
     </r>
     <r>
@@ -172,6 +206,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>观察</t>
     </r>
     <r>
@@ -188,7 +228,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>是否工作</t>
@@ -196,6 +235,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>能否释放</t>
     </r>
     <r>
@@ -210,6 +255,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>能否</t>
     </r>
     <r>
@@ -226,7 +277,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>进程</t>
@@ -234,6 +284,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>能否</t>
     </r>
     <r>
@@ -250,7 +306,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>进程</t>
@@ -258,6 +313,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>删除配置，能否卸载</t>
     </r>
     <r>
@@ -275,6 +336,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>能否安装</t>
     </r>
     <r>
@@ -292,6 +359,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>能否启动</t>
     </r>
     <r>
@@ -308,7 +381,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>服务</t>
@@ -319,6 +391,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>能否下载并解压</t>
     </r>
     <r>
@@ -335,7 +413,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>镜像文件</t>
@@ -343,6 +420,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>docker</t>
     </r>
     <r>
@@ -350,7 +433,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>能否加载</t>
@@ -367,6 +449,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>docker</t>
     </r>
     <r>
@@ -374,7 +462,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>能否加载</t>
@@ -394,6 +481,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>能否替换论坛项目</t>
     </r>
     <r>
@@ -410,7 +503,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>文件中的</t>
@@ -429,7 +521,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>为本地</t>
@@ -446,6 +537,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>检查是否已拷贝论坛项目</t>
     </r>
     <r>
@@ -462,7 +559,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>至</t>
@@ -481,7 +577,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>目录</t>
@@ -489,6 +584,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>docker</t>
     </r>
     <r>
@@ -496,7 +597,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>能否启动</t>
@@ -515,7 +615,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>服务</t>
@@ -523,6 +622,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>docker</t>
     </r>
     <r>
@@ -530,7 +635,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>能否启动</t>
@@ -549,7 +653,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>服务</t>
@@ -557,6 +660,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>测试</t>
     </r>
     <r>
@@ -573,7 +682,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>中</t>
@@ -592,7 +700,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>启动是否成功</t>
@@ -600,6 +707,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>能否重启</t>
     </r>
     <r>
@@ -616,7 +729,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>容器</t>
@@ -624,6 +736,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>能否中止</t>
     </r>
     <r>
@@ -640,7 +758,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>容器</t>
@@ -648,6 +765,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>能否删除</t>
     </r>
     <r>
@@ -664,7 +787,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>容器</t>
@@ -672,6 +794,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>能否删除</t>
     </r>
     <r>
@@ -688,7 +816,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>镜像</t>
@@ -699,6 +826,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>安装</t>
     </r>
     <r>
@@ -715,7 +848,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>及相关依赖包</t>
@@ -729,6 +861,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>查看</t>
     </r>
     <r>
@@ -745,7 +883,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>配置</t>
@@ -753,6 +890,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>准备</t>
     </r>
     <r>
@@ -769,7 +912,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>配置文件</t>
@@ -777,6 +919,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>创建</t>
     </r>
     <r>
@@ -793,7 +941,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>容器</t>
@@ -801,6 +948,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>列举</t>
     </r>
     <r>
@@ -817,7 +970,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>容器</t>
@@ -825,6 +977,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>开启</t>
     </r>
     <r>
@@ -841,7 +999,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>容器</t>
@@ -849,6 +1006,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>attach lax</t>
     </r>
     <r>
@@ -856,7 +1019,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>容器</t>
@@ -864,6 +1026,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>执行</t>
     </r>
     <r>
@@ -880,7 +1048,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>容器</t>
@@ -888,6 +1055,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>停止</t>
     </r>
     <r>
@@ -904,7 +1077,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>容器</t>
@@ -912,6 +1084,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>销毁</t>
     </r>
     <r>
@@ -928,7 +1106,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>容器</t>
@@ -948,6 +1125,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>检查</t>
     </r>
     <r>
@@ -955,7 +1138,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="AR PL UKai CN"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>image</t>
@@ -965,7 +1147,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>和</t>
@@ -975,7 +1156,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="AR PL UKai CN"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>rootfs</t>
@@ -985,7 +1165,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>文件是否已下载好</t>
@@ -996,6 +1175,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>检查是否下载</t>
     </r>
     <r>
@@ -1003,7 +1188,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="AR PL UKai CN"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>qemu</t>
@@ -1013,7 +1197,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>、</t>
@@ -1023,7 +1206,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="AR PL UKai CN"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>kvm</t>
@@ -1033,7 +1215,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>及相关依赖包</t>
@@ -1041,6 +1222,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>查看</t>
     </r>
     <r>
@@ -1048,7 +1235,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="AR PL UKai CN"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>qemu</t>
@@ -1058,7 +1244,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>帮助</t>
@@ -1066,6 +1251,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>能否挂载</t>
     </r>
     <r>
@@ -1082,7 +1273,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>系统文件</t>
@@ -1090,6 +1280,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>能否创建</t>
     </r>
     <r>
@@ -1097,7 +1293,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="AR PL UKai CN"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>qemu</t>
@@ -1107,7 +1302,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>镜像文件</t>
@@ -1133,6 +1327,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>检查</t>
     </r>
     <r>
@@ -1149,7 +1349,6 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>网络块设备</t>
@@ -1157,6 +1356,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
       <t>能否启动</t>
     </r>
     <r>
@@ -1173,11 +1378,13 @@
         <sz val="10"/>
         <color indexed="63"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>虚拟系统</t>
     </r>
+  </si>
+  <si>
+    <t>kubernetes</t>
   </si>
 </sst>
 </file>
@@ -1185,11 +1392,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;／&quot;d&quot;／&quot;yyyy"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -1214,7 +1421,6 @@
       <sz val="10"/>
       <color indexed="63"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1222,14 +1428,12 @@
       <sz val="10"/>
       <color indexed="63"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="63"/>
       <name val="AR PL UKai CN"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -1256,20 +1460,17 @@
       <sz val="10"/>
       <color indexed="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -1298,7 +1499,6 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -1306,7 +1506,6 @@
       <sz val="10"/>
       <color indexed="23"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -1325,10 +1524,56 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1340,9 +1585,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1356,9 +1622,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1366,44 +1631,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1430,37 +1658,8 @@
       <name val="Noto Sans CJK SC Regular"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1505,13 +1704,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1529,7 +1728,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1541,73 +1848,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1619,25 +1860,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1649,43 +1878,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1843,6 +2036,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1854,6 +2056,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1874,41 +2096,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1923,11 +2110,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1936,155 +2129,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2094,9 +2287,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2127,16 +2317,16 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2160,20 +2350,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="6" borderId="6" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="12" fillId="4" borderId="6" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2183,8 +2369,8 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -2522,12 +2708,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.1111111111111" defaultRowHeight="19" customHeight="1"/>
@@ -2535,8 +2721,7 @@
     <col min="1" max="1" width="17.962962962963" style="2" customWidth="1"/>
     <col min="2" max="2" width="30.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="13.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="9.66666666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.66666666666667" style="3" customWidth="1"/>
+    <col min="4" max="5" width="9.66666666666667" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.1111111111111" customWidth="1"/>
     <col min="7" max="7" width="13.4444444444444" customWidth="1"/>
     <col min="8" max="8" width="9.66666666666667" customWidth="1"/>
@@ -2545,979 +2730,996 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="29"/>
+      <c r="E2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="29"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="29"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" customHeight="1" spans="1:9">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="29"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" customHeight="1" spans="1:9">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="29"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="29"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="29"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="29"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="29"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="27"/>
     </row>
     <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="29"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="27"/>
     </row>
     <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="29"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="29"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="14" customHeight="1" spans="1:9">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="29"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="27"/>
     </row>
     <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="29"/>
+      <c r="E15" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="27"/>
     </row>
     <row r="16" customHeight="1" spans="1:9">
-      <c r="A16" s="10"/>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="29"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="27"/>
     </row>
     <row r="17" customHeight="1" spans="1:9">
-      <c r="A17" s="10"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="29"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="27"/>
     </row>
     <row r="18" customHeight="1" spans="1:9">
-      <c r="A18" s="10"/>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="29"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="27"/>
     </row>
     <row r="19" customHeight="1" spans="1:9">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="29"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="27"/>
     </row>
     <row r="20" customHeight="1" spans="1:9">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="29"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="27"/>
     </row>
     <row r="21" customHeight="1" spans="1:9">
-      <c r="A21" s="10"/>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="29"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" customHeight="1" spans="1:9">
-      <c r="A22" s="10"/>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="29"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="27"/>
     </row>
     <row r="23" customHeight="1" spans="1:9">
-      <c r="A23" s="10"/>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="29"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="27"/>
     </row>
     <row r="24" customHeight="1" spans="1:9">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="29"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="27"/>
     </row>
     <row r="25" customHeight="1" spans="1:9">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="29"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="27"/>
     </row>
     <row r="26" customHeight="1" spans="1:9">
-      <c r="A26" s="10"/>
-      <c r="B26" s="7" t="s">
+      <c r="A26" s="9"/>
+      <c r="B26" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="29"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" customHeight="1" spans="1:9">
-      <c r="A27" s="10"/>
-      <c r="B27" s="7" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="29"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="27"/>
     </row>
     <row r="28" customHeight="1" spans="1:9">
-      <c r="A28" s="10"/>
-      <c r="B28" s="7" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="29"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="27"/>
     </row>
     <row r="29" customHeight="1" spans="1:9">
-      <c r="A29" s="10"/>
-      <c r="B29" s="7" t="s">
+      <c r="A29" s="9"/>
+      <c r="B29" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="29"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="27"/>
     </row>
     <row r="30" customHeight="1" spans="1:9">
-      <c r="A30" s="10"/>
-      <c r="B30" s="7" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="29"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="27"/>
     </row>
     <row r="31" customHeight="1" spans="1:9">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="20"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="29"/>
+      <c r="E31" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="27"/>
     </row>
     <row r="32" customHeight="1" spans="1:9">
-      <c r="A32" s="12"/>
-      <c r="B32" s="7" t="s">
+      <c r="A32" s="11"/>
+      <c r="B32" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="29"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="27"/>
     </row>
     <row r="33" customHeight="1" spans="1:9">
-      <c r="A33" s="12"/>
-      <c r="B33" s="7" t="s">
+      <c r="A33" s="11"/>
+      <c r="B33" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="29"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="19"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="27"/>
     </row>
     <row r="34" customHeight="1" spans="1:9">
-      <c r="A34" s="12"/>
-      <c r="B34" s="7" t="s">
+      <c r="A34" s="11"/>
+      <c r="B34" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="20"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="29"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="19"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="27"/>
     </row>
     <row r="35" customHeight="1" spans="1:9">
-      <c r="A35" s="12"/>
-      <c r="B35" s="7" t="s">
+      <c r="A35" s="11"/>
+      <c r="B35" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="20"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="29"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="19"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="27"/>
     </row>
     <row r="36" customHeight="1" spans="1:9">
-      <c r="A36" s="12"/>
-      <c r="B36" s="7" t="s">
+      <c r="A36" s="11"/>
+      <c r="B36" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="20"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="29"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="19"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="27"/>
     </row>
     <row r="37" customHeight="1" spans="1:9">
-      <c r="A37" s="12"/>
-      <c r="B37" s="7" t="s">
+      <c r="A37" s="11"/>
+      <c r="B37" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="20"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="29"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="19"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="27"/>
     </row>
     <row r="38" customHeight="1" spans="1:9">
-      <c r="A38" s="12"/>
-      <c r="B38" s="11" t="s">
+      <c r="A38" s="11"/>
+      <c r="B38" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="29"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="19"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="27"/>
     </row>
     <row r="39" customHeight="1" spans="1:9">
-      <c r="A39" s="12"/>
-      <c r="B39" s="7" t="s">
+      <c r="A39" s="11"/>
+      <c r="B39" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="20"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="29"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="19"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="27"/>
     </row>
     <row r="40" customHeight="1" spans="1:9">
-      <c r="A40" s="12"/>
-      <c r="B40" s="7" t="s">
+      <c r="A40" s="11"/>
+      <c r="B40" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="20"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="29"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="19"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="27"/>
     </row>
     <row r="41" customHeight="1" spans="1:9">
-      <c r="A41" s="12"/>
-      <c r="B41" s="7" t="s">
+      <c r="A41" s="11"/>
+      <c r="B41" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="20"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="29"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="19"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="27"/>
     </row>
     <row r="42" customHeight="1" spans="1:9">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="19" t="s">
+      <c r="D42" s="12"/>
+      <c r="E42" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G42" s="20"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="30"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="28"/>
     </row>
     <row r="43" customHeight="1" spans="1:9">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="20"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="29"/>
+      <c r="E43" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="19"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="27"/>
     </row>
     <row r="44" customHeight="1" spans="1:9">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7" t="s">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="20"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="29"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="19"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="27"/>
     </row>
     <row r="45" customHeight="1" spans="1:9">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7" t="s">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="20"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="29"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="19"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="27"/>
     </row>
     <row r="46" customHeight="1" spans="1:9">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7" t="s">
+      <c r="A46" s="5"/>
+      <c r="B46" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="20"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="29"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="19"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="27"/>
     </row>
     <row r="47" customHeight="1" spans="1:9">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7" t="s">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="20"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="29"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="19"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="27"/>
     </row>
     <row r="48" customHeight="1" spans="1:9">
-      <c r="A48" s="6"/>
-      <c r="B48" s="7" t="s">
+      <c r="A48" s="5"/>
+      <c r="B48" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="20"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="29"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="19"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="27"/>
     </row>
     <row r="49" customHeight="1" spans="1:9">
-      <c r="A49" s="6"/>
-      <c r="B49" s="7" t="s">
+      <c r="A49" s="5"/>
+      <c r="B49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="20"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="29"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="19"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="27"/>
     </row>
     <row r="50" customHeight="1" spans="1:9">
-      <c r="A50" s="6"/>
-      <c r="B50" s="7" t="s">
+      <c r="A50" s="5"/>
+      <c r="B50" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="20"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="29"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="19"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="27"/>
     </row>
     <row r="51" customHeight="1" spans="1:9">
-      <c r="A51" s="6"/>
-      <c r="B51" s="7" t="s">
+      <c r="A51" s="5"/>
+      <c r="B51" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="20"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="29"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="19"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="27"/>
     </row>
     <row r="52" customHeight="1" spans="1:9">
-      <c r="A52" s="6"/>
-      <c r="B52" s="7" t="s">
+      <c r="A52" s="5"/>
+      <c r="B52" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" s="20"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="29"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="19"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="27"/>
     </row>
     <row r="53" customHeight="1" spans="1:9">
-      <c r="A53" s="6"/>
-      <c r="B53" s="7" t="s">
+      <c r="A53" s="5"/>
+      <c r="B53" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="20"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="29"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="19"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="27"/>
     </row>
     <row r="54" customHeight="1" spans="1:9">
-      <c r="A54" s="6"/>
-      <c r="B54" s="7" t="s">
+      <c r="A54" s="5"/>
+      <c r="B54" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="20"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="29"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="19"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="27"/>
     </row>
     <row r="55" customHeight="1" spans="1:9">
-      <c r="A55" s="14"/>
-      <c r="B55" s="15" t="s">
+      <c r="A55" s="5"/>
+      <c r="B55" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" s="26"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="31"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="19"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="27"/>
+    </row>
+    <row r="56" customHeight="1" spans="1:9">
+      <c r="A56" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="25"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I55"/>
@@ -3535,7 +3737,7 @@
     <mergeCell ref="D31:D41"/>
     <mergeCell ref="D43:D55"/>
   </mergeCells>
-  <conditionalFormatting sqref="G2:G55">
+  <conditionalFormatting sqref="G2:G56">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
@@ -3546,10 +3748,10 @@
   <dataValidations count="4">
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="H2:H55"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I55"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G54 G55:G56">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="PLS Select 请选择" sqref="F2:F55">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="PLS Select 请选择" sqref="F2:F54 F55:F56">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
